--- a/pruebas/tiempos_seccionesCriticas.xlsx
+++ b/pruebas/tiempos_seccionesCriticas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>TIEMPOS</t>
   </si>
@@ -26,13 +26,20 @@
   <si>
     <t>sección critica mejorada</t>
   </si>
+  <si>
+    <t>Eficiencia</t>
+  </si>
+  <si>
+    <t>Speed-up</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -58,7 +65,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +75,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -126,6 +139,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,7 +221,7 @@
             <c:numRef>
               <c:f>Hoja1!$B$5:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>16.52234</c:v>
@@ -229,33 +249,74 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65057536"/>
-        <c:axId val="65059072"/>
+        <c:axId val="77853824"/>
+        <c:axId val="77856128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65057536"/>
+        <c:axId val="77853824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65059072"/>
+        <c:crossAx val="77856128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65059072"/>
+        <c:axId val="77856128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65057536"/>
+        <c:crossAx val="77853824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -268,7 +329,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -304,7 +365,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Tiempo</c:v>
+            <c:v>Sección crítica mejorada</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
@@ -340,7 +401,7 @@
             <c:numRef>
               <c:f>Hoja1!$B$23:$H$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>16.513380000000002</c:v>
@@ -362,39 +423,125 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6.7874000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sección critica normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.52234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.6304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7971260000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3772320000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.370560000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.662599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.371019999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65071360"/>
-        <c:axId val="68300800"/>
+        <c:axId val="77898112"/>
+        <c:axId val="77900032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65071360"/>
+        <c:axId val="77898112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68300800"/>
+        <c:crossAx val="77900032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68300800"/>
+        <c:axId val="77900032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65071360"/>
+        <c:crossAx val="77898112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -407,7 +554,427 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Sección crítica mejorada</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18963790935366021"/>
+          <c:y val="0.16237707382717956"/>
+          <c:w val="0.56382572795449548"/>
+          <c:h val="0.65439818832882191"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sección crítica mejorada</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.513380000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.740980000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5746759999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4198380000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6779800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0212960000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7874000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sección critica normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.52234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.6304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7971260000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3772320000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.370560000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.662599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.371019999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="78457856"/>
+        <c:axId val="78476416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78457856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78476416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78476416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78457856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79023008586485455"/>
+          <c:y val="0.24788268638291058"/>
+          <c:w val="0.19363277143857552"/>
+          <c:h val="0.45928263665444014"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Sección crítica normal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tiempo</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16.52234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.6304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7971260000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3772320000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.370560000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.662599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.371019999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="78509184"/>
+        <c:axId val="78511104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78509184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78511104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78511104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1200" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78509184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -454,9 +1021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>592894</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>118172</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -470,6 +1037,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>510266</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>169194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>585464</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>164179</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="7 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="8 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -763,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:I34"/>
+  <dimension ref="A3:AW77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="T29" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AE55" sqref="AE55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -778,12 +1405,12 @@
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:49">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:49">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -807,40 +1434,106 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:49">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <f t="shared" ref="B5:H5" si="0">SUM(A10:A14)/5</f>
         <v>16.52234</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>11.6304</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>7.7971260000000004</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>9.3772320000000011</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>14.370560000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>27.662599999999998</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>31.371019999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="6" spans="1:49">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <f>$B$5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" ref="C6:H6" si="1">$B$5/C5</f>
+        <v>1.4206166597881413</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1190294988178975</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7619634450763293</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1497352921528456</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.59728080513039272</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.52667525633530565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11">
+        <f>B6/B4</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" ref="C7:H7" si="2">C6/C4</f>
+        <v>0.71030832989407067</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="2"/>
+        <v>0.52975737470447437</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="2"/>
+        <v>0.22024543063454116</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="2"/>
+        <v>7.1858455759552853E-2</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="2"/>
+        <v>1.8665025160324773E-2</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0972401173652202E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -848,7 +1541,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:49">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -873,7 +1566,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:49">
       <c r="A10" s="4">
         <v>16.455400000000001</v>
       </c>
@@ -896,7 +1589,7 @@
         <v>31.0092</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:49">
       <c r="A11" s="4">
         <v>16.453600000000002</v>
       </c>
@@ -919,7 +1612,7 @@
         <v>30.761399999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:49">
       <c r="A12" s="4">
         <v>16.460999999999999</v>
       </c>
@@ -942,7 +1635,7 @@
         <v>31.359400000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:49">
       <c r="A13" s="4">
         <v>16.837199999999999</v>
       </c>
@@ -965,7 +1658,7 @@
         <v>31.759399999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:49">
       <c r="A14" s="4">
         <v>16.404499999999999</v>
       </c>
@@ -988,12 +1681,178 @@
         <v>31.965699999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="16" spans="1:49">
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+    </row>
+    <row r="17" spans="1:49">
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+    </row>
+    <row r="18" spans="1:49">
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+    </row>
+    <row r="19" spans="1:49">
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+    </row>
+    <row r="20" spans="1:49">
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+    </row>
+    <row r="21" spans="1:49">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+    </row>
+    <row r="22" spans="1:49">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>1</v>
@@ -1016,41 +1875,239 @@
       <c r="H22" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+    </row>
+    <row r="23" spans="1:49">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4">
-        <f t="shared" ref="B23:H23" si="1">SUM(A28:A32)/5</f>
+      <c r="B23" s="8">
+        <f t="shared" ref="B23:H23" si="3">SUM(A28:A32)/5</f>
         <v>16.513380000000002</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" si="1"/>
+      <c r="C23" s="8">
+        <f t="shared" si="3"/>
         <v>10.740980000000002</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" si="1"/>
+      <c r="D23" s="8">
+        <f t="shared" si="3"/>
         <v>6.5746759999999993</v>
       </c>
-      <c r="E23" s="4">
-        <f t="shared" si="1"/>
+      <c r="E23" s="8">
+        <f t="shared" si="3"/>
         <v>5.4198380000000004</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="1"/>
+      <c r="F23" s="8">
+        <f t="shared" si="3"/>
         <v>3.6779800000000002</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" si="1"/>
+      <c r="G23" s="8">
+        <f t="shared" si="3"/>
         <v>6.0212960000000004</v>
       </c>
-      <c r="H23" s="4">
-        <f t="shared" si="1"/>
+      <c r="H23" s="8">
+        <f t="shared" si="3"/>
         <v>6.7874000000000008</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+    </row>
+    <row r="24" spans="1:49">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9">
+        <f>$B$23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24:H24" si="4">$B$23/C23</f>
+        <v>1.5374183733700275</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="4"/>
+        <v>2.5116644531228616</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="4"/>
+        <v>3.0468401454065601</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="4"/>
+        <v>4.4897960293421937</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="4"/>
+        <v>2.7424959676455036</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="4"/>
+        <v>2.4329463417508914</v>
+      </c>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+    </row>
+    <row r="25" spans="1:49">
+      <c r="A25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11">
+        <f>B24/B22</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" ref="C25:H25" si="5">C24/C22</f>
+        <v>0.76870918668501376</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="5"/>
+        <v>0.62791611328071539</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="5"/>
+        <v>0.38085501817582001</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="5"/>
+        <v>0.28061225183388711</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="5"/>
+        <v>8.5702998988921988E-2</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="5"/>
+        <v>5.068638211981024E-2</v>
+      </c>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
+    </row>
+    <row r="26" spans="1:49">
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+    </row>
+    <row r="27" spans="1:49">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -1072,8 +2129,34 @@
       <c r="G27" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+    </row>
+    <row r="28" spans="1:49">
       <c r="A28" s="4">
         <v>16.430499999999999</v>
       </c>
@@ -1095,8 +2178,34 @@
       <c r="G28" s="4">
         <v>6.8708099999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="7"/>
+    </row>
+    <row r="29" spans="1:49">
       <c r="A29" s="4">
         <v>16.566099999999999</v>
       </c>
@@ -1118,8 +2227,34 @@
       <c r="G29" s="4">
         <v>6.8798399999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="7"/>
+    </row>
+    <row r="30" spans="1:49">
       <c r="A30" s="4">
         <v>16.5974</v>
       </c>
@@ -1141,8 +2276,34 @@
       <c r="G30" s="4">
         <v>6.8439100000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+    </row>
+    <row r="31" spans="1:49">
       <c r="A31" s="4">
         <v>16.452200000000001</v>
       </c>
@@ -1164,8 +2325,34 @@
       <c r="G31" s="4">
         <v>6.65923</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="7"/>
+    </row>
+    <row r="32" spans="1:49">
       <c r="A32" s="4">
         <v>16.520700000000001</v>
       </c>
@@ -1187,17 +2374,1299 @@
       <c r="G32" s="4">
         <v>6.6832099999999999</v>
       </c>
-    </row>
-    <row r="33" spans="8:9">
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+    </row>
+    <row r="33" spans="8:49">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="8:9">
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+      <c r="AW33" s="7"/>
+    </row>
+    <row r="34" spans="8:49">
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+    </row>
+    <row r="35" spans="8:49">
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="7"/>
+      <c r="AT35" s="7"/>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="7"/>
+      <c r="AW35" s="7"/>
+    </row>
+    <row r="36" spans="8:49">
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="7"/>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="7"/>
+      <c r="AW36" s="7"/>
+    </row>
+    <row r="37" spans="8:49">
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="7"/>
+      <c r="AT37" s="7"/>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="7"/>
+      <c r="AW37" s="7"/>
+    </row>
+    <row r="38" spans="8:49">
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="7"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="7"/>
+    </row>
+    <row r="39" spans="8:49">
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+      <c r="AW39" s="7"/>
+    </row>
+    <row r="40" spans="8:49">
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7"/>
+      <c r="AT40" s="7"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+      <c r="AW40" s="7"/>
+    </row>
+    <row r="41" spans="8:49">
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="7"/>
+    </row>
+    <row r="42" spans="8:49">
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="7"/>
+      <c r="AW42" s="7"/>
+    </row>
+    <row r="43" spans="8:49">
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="7"/>
+      <c r="AS43" s="7"/>
+      <c r="AT43" s="7"/>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="7"/>
+      <c r="AW43" s="7"/>
+    </row>
+    <row r="44" spans="8:49">
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="7"/>
+      <c r="AR44" s="7"/>
+      <c r="AS44" s="7"/>
+      <c r="AT44" s="7"/>
+      <c r="AU44" s="7"/>
+      <c r="AV44" s="7"/>
+      <c r="AW44" s="7"/>
+    </row>
+    <row r="45" spans="8:49">
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="7"/>
+      <c r="AW45" s="7"/>
+    </row>
+    <row r="46" spans="8:49">
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7"/>
+      <c r="AW46" s="7"/>
+    </row>
+    <row r="47" spans="8:49">
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7"/>
+      <c r="AW47" s="7"/>
+    </row>
+    <row r="48" spans="8:49">
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="7"/>
+      <c r="AW48" s="7"/>
+    </row>
+    <row r="49" spans="24:49">
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7"/>
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7"/>
+      <c r="AW49" s="7"/>
+    </row>
+    <row r="50" spans="24:49">
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+    </row>
+    <row r="51" spans="24:49">
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+      <c r="AP51" s="7"/>
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="7"/>
+      <c r="AS51" s="7"/>
+      <c r="AT51" s="7"/>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="7"/>
+      <c r="AW51" s="7"/>
+    </row>
+    <row r="52" spans="24:49">
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="7"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="7"/>
+      <c r="AW52" s="7"/>
+    </row>
+    <row r="53" spans="24:49">
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+      <c r="AP53" s="7"/>
+      <c r="AQ53" s="7"/>
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="7"/>
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="7"/>
+      <c r="AV53" s="7"/>
+      <c r="AW53" s="7"/>
+    </row>
+    <row r="54" spans="24:49">
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+      <c r="AP54" s="7"/>
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="7"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="7"/>
+      <c r="AW54" s="7"/>
+    </row>
+    <row r="55" spans="24:49">
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7"/>
+      <c r="AT55" s="7"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="7"/>
+      <c r="AW55" s="7"/>
+    </row>
+    <row r="56" spans="24:49">
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="7"/>
+      <c r="AV56" s="7"/>
+      <c r="AW56" s="7"/>
+    </row>
+    <row r="57" spans="24:49">
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="7"/>
+      <c r="AQ57" s="7"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+      <c r="AT57" s="7"/>
+      <c r="AU57" s="7"/>
+      <c r="AV57" s="7"/>
+      <c r="AW57" s="7"/>
+    </row>
+    <row r="58" spans="24:49">
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+      <c r="AO58" s="7"/>
+      <c r="AP58" s="7"/>
+      <c r="AQ58" s="7"/>
+      <c r="AR58" s="7"/>
+      <c r="AS58" s="7"/>
+      <c r="AT58" s="7"/>
+      <c r="AU58" s="7"/>
+      <c r="AV58" s="7"/>
+      <c r="AW58" s="7"/>
+    </row>
+    <row r="59" spans="24:49">
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
+      <c r="AR59" s="7"/>
+      <c r="AS59" s="7"/>
+      <c r="AT59" s="7"/>
+      <c r="AU59" s="7"/>
+      <c r="AV59" s="7"/>
+      <c r="AW59" s="7"/>
+    </row>
+    <row r="60" spans="24:49">
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="7"/>
+      <c r="AT60" s="7"/>
+      <c r="AU60" s="7"/>
+      <c r="AV60" s="7"/>
+      <c r="AW60" s="7"/>
+    </row>
+    <row r="61" spans="24:49">
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="7"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="7"/>
+      <c r="AW61" s="7"/>
+    </row>
+    <row r="62" spans="24:49">
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7"/>
+      <c r="AT62" s="7"/>
+      <c r="AU62" s="7"/>
+      <c r="AV62" s="7"/>
+      <c r="AW62" s="7"/>
+    </row>
+    <row r="63" spans="24:49">
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="7"/>
+      <c r="AK63" s="7"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+      <c r="AO63" s="7"/>
+      <c r="AP63" s="7"/>
+      <c r="AQ63" s="7"/>
+      <c r="AR63" s="7"/>
+      <c r="AS63" s="7"/>
+      <c r="AT63" s="7"/>
+      <c r="AU63" s="7"/>
+      <c r="AV63" s="7"/>
+      <c r="AW63" s="7"/>
+    </row>
+    <row r="64" spans="24:49">
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
+      <c r="AP64" s="7"/>
+      <c r="AQ64" s="7"/>
+      <c r="AR64" s="7"/>
+      <c r="AS64" s="7"/>
+      <c r="AT64" s="7"/>
+      <c r="AU64" s="7"/>
+      <c r="AV64" s="7"/>
+      <c r="AW64" s="7"/>
+    </row>
+    <row r="65" spans="24:49">
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+      <c r="AO65" s="7"/>
+      <c r="AP65" s="7"/>
+      <c r="AQ65" s="7"/>
+      <c r="AR65" s="7"/>
+      <c r="AS65" s="7"/>
+      <c r="AT65" s="7"/>
+      <c r="AU65" s="7"/>
+      <c r="AV65" s="7"/>
+      <c r="AW65" s="7"/>
+    </row>
+    <row r="66" spans="24:49">
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="7"/>
+      <c r="AI66" s="7"/>
+      <c r="AJ66" s="7"/>
+      <c r="AK66" s="7"/>
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+      <c r="AO66" s="7"/>
+      <c r="AP66" s="7"/>
+      <c r="AQ66" s="7"/>
+      <c r="AR66" s="7"/>
+      <c r="AS66" s="7"/>
+      <c r="AT66" s="7"/>
+      <c r="AU66" s="7"/>
+      <c r="AV66" s="7"/>
+      <c r="AW66" s="7"/>
+    </row>
+    <row r="67" spans="24:49">
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7"/>
+      <c r="AH67" s="7"/>
+      <c r="AI67" s="7"/>
+      <c r="AJ67" s="7"/>
+      <c r="AK67" s="7"/>
+      <c r="AL67" s="7"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+      <c r="AO67" s="7"/>
+      <c r="AP67" s="7"/>
+      <c r="AQ67" s="7"/>
+      <c r="AR67" s="7"/>
+      <c r="AS67" s="7"/>
+      <c r="AT67" s="7"/>
+      <c r="AU67" s="7"/>
+      <c r="AV67" s="7"/>
+      <c r="AW67" s="7"/>
+    </row>
+    <row r="68" spans="24:49">
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7"/>
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="7"/>
+      <c r="AJ68" s="7"/>
+      <c r="AK68" s="7"/>
+      <c r="AL68" s="7"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+      <c r="AO68" s="7"/>
+      <c r="AP68" s="7"/>
+      <c r="AQ68" s="7"/>
+      <c r="AR68" s="7"/>
+      <c r="AS68" s="7"/>
+      <c r="AT68" s="7"/>
+      <c r="AU68" s="7"/>
+      <c r="AV68" s="7"/>
+      <c r="AW68" s="7"/>
+    </row>
+    <row r="69" spans="24:49">
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7"/>
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="7"/>
+      <c r="AJ69" s="7"/>
+      <c r="AK69" s="7"/>
+      <c r="AL69" s="7"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+      <c r="AO69" s="7"/>
+      <c r="AP69" s="7"/>
+      <c r="AQ69" s="7"/>
+      <c r="AR69" s="7"/>
+      <c r="AS69" s="7"/>
+      <c r="AT69" s="7"/>
+      <c r="AU69" s="7"/>
+      <c r="AV69" s="7"/>
+      <c r="AW69" s="7"/>
+    </row>
+    <row r="70" spans="24:49">
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="7"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7"/>
+      <c r="AJ70" s="7"/>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="7"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+      <c r="AO70" s="7"/>
+      <c r="AP70" s="7"/>
+      <c r="AQ70" s="7"/>
+      <c r="AR70" s="7"/>
+      <c r="AS70" s="7"/>
+      <c r="AT70" s="7"/>
+      <c r="AU70" s="7"/>
+      <c r="AV70" s="7"/>
+      <c r="AW70" s="7"/>
+    </row>
+    <row r="71" spans="24:49">
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="7"/>
+      <c r="AG71" s="7"/>
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="7"/>
+      <c r="AJ71" s="7"/>
+      <c r="AK71" s="7"/>
+      <c r="AL71" s="7"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+      <c r="AO71" s="7"/>
+      <c r="AP71" s="7"/>
+      <c r="AQ71" s="7"/>
+      <c r="AR71" s="7"/>
+      <c r="AS71" s="7"/>
+      <c r="AT71" s="7"/>
+      <c r="AU71" s="7"/>
+      <c r="AV71" s="7"/>
+      <c r="AW71" s="7"/>
+    </row>
+    <row r="72" spans="24:49">
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7"/>
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="7"/>
+      <c r="AJ72" s="7"/>
+      <c r="AK72" s="7"/>
+      <c r="AL72" s="7"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+      <c r="AO72" s="7"/>
+      <c r="AP72" s="7"/>
+      <c r="AQ72" s="7"/>
+      <c r="AR72" s="7"/>
+      <c r="AS72" s="7"/>
+      <c r="AT72" s="7"/>
+      <c r="AU72" s="7"/>
+      <c r="AV72" s="7"/>
+      <c r="AW72" s="7"/>
+    </row>
+    <row r="73" spans="24:49">
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+      <c r="AO73" s="7"/>
+      <c r="AP73" s="7"/>
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="7"/>
+      <c r="AS73" s="7"/>
+      <c r="AT73" s="7"/>
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="7"/>
+      <c r="AW73" s="7"/>
+    </row>
+    <row r="74" spans="24:49">
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="7"/>
+      <c r="AI74" s="7"/>
+      <c r="AJ74" s="7"/>
+      <c r="AK74" s="7"/>
+      <c r="AL74" s="7"/>
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="7"/>
+      <c r="AO74" s="7"/>
+      <c r="AP74" s="7"/>
+      <c r="AQ74" s="7"/>
+      <c r="AR74" s="7"/>
+      <c r="AS74" s="7"/>
+      <c r="AT74" s="7"/>
+      <c r="AU74" s="7"/>
+      <c r="AV74" s="7"/>
+      <c r="AW74" s="7"/>
+    </row>
+    <row r="75" spans="24:49">
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="7"/>
+      <c r="AK75" s="7"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
+      <c r="AO75" s="7"/>
+      <c r="AP75" s="7"/>
+      <c r="AQ75" s="7"/>
+      <c r="AR75" s="7"/>
+      <c r="AS75" s="7"/>
+      <c r="AT75" s="7"/>
+      <c r="AU75" s="7"/>
+      <c r="AV75" s="7"/>
+      <c r="AW75" s="7"/>
+    </row>
+    <row r="76" spans="24:49">
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="7"/>
+      <c r="AG76" s="7"/>
+      <c r="AH76" s="7"/>
+      <c r="AI76" s="7"/>
+      <c r="AJ76" s="7"/>
+      <c r="AK76" s="7"/>
+      <c r="AL76" s="7"/>
+      <c r="AM76" s="7"/>
+      <c r="AN76" s="7"/>
+      <c r="AO76" s="7"/>
+      <c r="AP76" s="7"/>
+      <c r="AQ76" s="7"/>
+      <c r="AR76" s="7"/>
+      <c r="AS76" s="7"/>
+      <c r="AT76" s="7"/>
+      <c r="AU76" s="7"/>
+      <c r="AV76" s="7"/>
+      <c r="AW76" s="7"/>
+    </row>
+    <row r="77" spans="24:49">
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="7"/>
+      <c r="AG77" s="7"/>
+      <c r="AH77" s="7"/>
+      <c r="AI77" s="7"/>
+      <c r="AJ77" s="7"/>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="7"/>
+      <c r="AO77" s="7"/>
+      <c r="AP77" s="7"/>
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="7"/>
+      <c r="AS77" s="7"/>
+      <c r="AT77" s="7"/>
+      <c r="AU77" s="7"/>
+      <c r="AV77" s="7"/>
+      <c r="AW77" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.5748031496062993" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
